--- a/test.xlsx
+++ b/test.xlsx
@@ -1,41 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repository\clone_puppeteer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED7FCE-6639-4F38-895B-E326817EF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Tracking Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>720266531415-PENDING</t>
+  </si>
+  <si>
+    <t>UNABLE TO PROCESS REQUEST</t>
+  </si>
+  <si>
+    <t>720315971720-PENDING</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,47 +410,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tracking Number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>273120697366</v>
-      </c>
-      <c r="B3" t="str">
-        <v>OT ON-TIME DELIVERY</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,47 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repository\clone_puppeteer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED7FCE-6639-4F38-895B-E326817EF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Tracking Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>720266531415-PENDING</t>
-  </si>
-  <si>
-    <t>UNABLE TO PROCESS REQUEST</t>
-  </si>
-  <si>
-    <t>720315971720-PENDING</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,46 +396,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Tracking Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>707086481493</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>707086481493</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>707086481508</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>707086481508</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>707086481519</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>707086481519</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>707086481520</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>707086481520</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>707086481530</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Page didn't load.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>707086481530</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Page didn't load.</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,41 +1,1375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repository\clone_puppeteer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8056488B-D131-465E-A50B-29C2AD9B69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$433</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="443">
+  <si>
+    <t>Tracking Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>272924669083</t>
+  </si>
+  <si>
+    <t>PENDING - UNABLE TO PROCESS REQUEST (THANK YOU)</t>
+  </si>
+  <si>
+    <t>272969066624</t>
+  </si>
+  <si>
+    <t>DENIED - 73 NON-EXPRESS CLEARANCE REQUIRED</t>
+  </si>
+  <si>
+    <t>272970915860</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>273021368200</t>
+  </si>
+  <si>
+    <t>640482408091</t>
+  </si>
+  <si>
+    <t>DENIED - 1048 CUSTOMER NOT ELIGIBLE FOR MBG</t>
+  </si>
+  <si>
+    <t>273052525440</t>
+  </si>
+  <si>
+    <t>Page didn't load.</t>
+  </si>
+  <si>
+    <t>273059247176</t>
+  </si>
+  <si>
+    <t>DENIED - 55 REGULATORY CLEARANCE DELAY</t>
+  </si>
+  <si>
+    <t>273064656571</t>
+  </si>
+  <si>
+    <t>273068400524</t>
+  </si>
+  <si>
+    <t>DENIED - OT ON-TIME DELIVERY</t>
+  </si>
+  <si>
+    <t>273052297290</t>
+  </si>
+  <si>
+    <t>273052432255</t>
+  </si>
+  <si>
+    <t>273052834020</t>
+  </si>
+  <si>
+    <t>273062536563</t>
+  </si>
+  <si>
+    <t>273062624323</t>
+  </si>
+  <si>
+    <t>273063097671</t>
+  </si>
+  <si>
+    <t>273066933387</t>
+  </si>
+  <si>
+    <t>273066995694</t>
+  </si>
+  <si>
+    <t>273067203576</t>
+  </si>
+  <si>
+    <t>775835671779</t>
+  </si>
+  <si>
+    <t>273015233170</t>
+  </si>
+  <si>
+    <t>273152854920</t>
+  </si>
+  <si>
+    <t>273154115536</t>
+  </si>
+  <si>
+    <t>707086481688</t>
+  </si>
+  <si>
+    <t>DENIED - DOES NOT MEET ELIGIBILITY CRITERIA</t>
+  </si>
+  <si>
+    <t>273128938174</t>
+  </si>
+  <si>
+    <t>273129697366</t>
+  </si>
+  <si>
+    <t>640482408128</t>
+  </si>
+  <si>
+    <t>640482408150</t>
+  </si>
+  <si>
+    <t>PENDING - UNABLE TO PROCESS REQUEST</t>
+  </si>
+  <si>
+    <t>272449828983</t>
+  </si>
+  <si>
+    <t>272450169771</t>
+  </si>
+  <si>
+    <t>775835671780</t>
+  </si>
+  <si>
+    <t>775124672140</t>
+  </si>
+  <si>
+    <t>775843266641</t>
+  </si>
+  <si>
+    <t>273002488140</t>
+  </si>
+  <si>
+    <t>272882621170</t>
+  </si>
+  <si>
+    <t>273151439944</t>
+  </si>
+  <si>
+    <t>273129785744</t>
+  </si>
+  <si>
+    <t>273152858134</t>
+  </si>
+  <si>
+    <t>775652199293</t>
+  </si>
+  <si>
+    <t>273188084678</t>
+  </si>
+  <si>
+    <t>775885631357</t>
+  </si>
+  <si>
+    <t>DENIED - 52 PACKAGE CLEARED AFTER AIRCRAFT DEPARTURE</t>
+  </si>
+  <si>
+    <t>273209483181</t>
+  </si>
+  <si>
+    <t>DENIED - 03 INCORRECT RECIPIENT ADDRESS</t>
+  </si>
+  <si>
+    <t>775655598849</t>
+  </si>
+  <si>
+    <t>272450171690</t>
+  </si>
+  <si>
+    <t>273268574877</t>
+  </si>
+  <si>
+    <t>272886399381</t>
+  </si>
+  <si>
+    <t>273026504088</t>
+  </si>
+  <si>
+    <t>273294654669</t>
+  </si>
+  <si>
+    <t>273300082661</t>
+  </si>
+  <si>
+    <t>272953337671</t>
+  </si>
+  <si>
+    <t>273318420817</t>
+  </si>
+  <si>
+    <t>273318474276</t>
+  </si>
+  <si>
+    <t>273211267076</t>
+  </si>
+  <si>
+    <t>273142824904</t>
+  </si>
+  <si>
+    <t>273167787575</t>
+  </si>
+  <si>
+    <t>DENIED - TS WEATHER DELAY - THUNDERSTORM</t>
+  </si>
+  <si>
+    <t>273326991330</t>
+  </si>
+  <si>
+    <t>273290111760</t>
+  </si>
+  <si>
+    <t>273329349626</t>
+  </si>
+  <si>
+    <t>273291965058</t>
+  </si>
+  <si>
+    <t>273330368647</t>
+  </si>
+  <si>
+    <t>273330914805</t>
+  </si>
+  <si>
+    <t>273310520360</t>
+  </si>
+  <si>
+    <t>273318756963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIED - 08 RECIPIENT NOT IN / BUSINESS CLOSED </t>
+  </si>
+  <si>
+    <t>273332460001</t>
+  </si>
+  <si>
+    <t>273318758944</t>
+  </si>
+  <si>
+    <t>273326869611</t>
+  </si>
+  <si>
+    <t>273327498110</t>
+  </si>
+  <si>
+    <t>273330074596</t>
+  </si>
+  <si>
+    <t>273342770435</t>
+  </si>
+  <si>
+    <t>273343187978</t>
+  </si>
+  <si>
+    <t>273350054699</t>
+  </si>
+  <si>
+    <t>273350763590</t>
+  </si>
+  <si>
+    <t>273330999594</t>
+  </si>
+  <si>
+    <t>273331499830</t>
+  </si>
+  <si>
+    <t>273334574860</t>
+  </si>
+  <si>
+    <t>273359992967</t>
+  </si>
+  <si>
+    <t>273359993356</t>
+  </si>
+  <si>
+    <t>273340188243</t>
+  </si>
+  <si>
+    <t>273360477978</t>
+  </si>
+  <si>
+    <t>273340532138</t>
+  </si>
+  <si>
+    <t>273360608230</t>
+  </si>
+  <si>
+    <t>273340532860</t>
+  </si>
+  <si>
+    <t>273357936380</t>
+  </si>
+  <si>
+    <t>273359387343</t>
+  </si>
+  <si>
+    <t>273359933604</t>
+  </si>
+  <si>
+    <t>273260476800</t>
+  </si>
+  <si>
+    <t>273360477408</t>
+  </si>
+  <si>
+    <t>273270257188</t>
+  </si>
+  <si>
+    <t>273270680165</t>
+  </si>
+  <si>
+    <t>273360478963</t>
+  </si>
+  <si>
+    <t>273271901824</t>
+  </si>
+  <si>
+    <t>273272196005</t>
+  </si>
+  <si>
+    <t>273272397420</t>
+  </si>
+  <si>
+    <t>273361890262</t>
+  </si>
+  <si>
+    <t>273453193050</t>
+  </si>
+  <si>
+    <t>273304591530</t>
+  </si>
+  <si>
+    <t>273221072541</t>
+  </si>
+  <si>
+    <t>273306548841</t>
+  </si>
+  <si>
+    <t>273314558050</t>
+  </si>
+  <si>
+    <t>273314764500</t>
+  </si>
+  <si>
+    <t>273259682461</t>
+  </si>
+  <si>
+    <t>273270091030</t>
+  </si>
+  <si>
+    <t>273271596580</t>
+  </si>
+  <si>
+    <t>273318157390</t>
+  </si>
+  <si>
+    <t>273318234130</t>
+  </si>
+  <si>
+    <t>273318502475</t>
+  </si>
+  <si>
+    <t>273319109350</t>
+  </si>
+  <si>
+    <t>273299237108</t>
+  </si>
+  <si>
+    <t>273336470225</t>
+  </si>
+  <si>
+    <t>273299765134</t>
+  </si>
+  <si>
+    <t>273337538460</t>
+  </si>
+  <si>
+    <t>273306545809</t>
+  </si>
+  <si>
+    <t>273356061677</t>
+  </si>
+  <si>
+    <t>273356196181</t>
+  </si>
+  <si>
+    <t>273360813853</t>
+  </si>
+  <si>
+    <t>273317848090</t>
+  </si>
+  <si>
+    <t>730488063418</t>
+  </si>
+  <si>
+    <t>730488063429</t>
+  </si>
+  <si>
+    <t>730488063430</t>
+  </si>
+  <si>
+    <t>730488063440</t>
+  </si>
+  <si>
+    <t>730488063451</t>
+  </si>
+  <si>
+    <t>273317848435</t>
+  </si>
+  <si>
+    <t>730488063473</t>
+  </si>
+  <si>
+    <t>273317854452</t>
+  </si>
+  <si>
+    <t>273319219788</t>
+  </si>
+  <si>
+    <t>730488063500</t>
+  </si>
+  <si>
+    <t>273336843082</t>
+  </si>
+  <si>
+    <t>730488063521</t>
+  </si>
+  <si>
+    <t>775887110450</t>
+  </si>
+  <si>
+    <t>273351918658</t>
+  </si>
+  <si>
+    <t>273361307688</t>
+  </si>
+  <si>
+    <t>775938079124</t>
+  </si>
+  <si>
+    <t>730488063462</t>
+  </si>
+  <si>
+    <t>730488063484</t>
+  </si>
+  <si>
+    <t>730488063495</t>
+  </si>
+  <si>
+    <t>818206770036</t>
+  </si>
+  <si>
+    <t>730488063510</t>
+  </si>
+  <si>
+    <t>775930980820</t>
+  </si>
+  <si>
+    <t>775934051181</t>
+  </si>
+  <si>
+    <t>775938954732</t>
+  </si>
+  <si>
+    <t>817420363963</t>
+  </si>
+  <si>
+    <t>818116007754</t>
+  </si>
+  <si>
+    <t>716768870790</t>
+  </si>
+  <si>
+    <t>707086479770</t>
+  </si>
+  <si>
+    <t>707086480096</t>
+  </si>
+  <si>
+    <t>707086481070</t>
+  </si>
+  <si>
+    <t>707086481107</t>
+  </si>
+  <si>
+    <t>707086481129</t>
+  </si>
+  <si>
+    <t>707086481232</t>
+  </si>
+  <si>
+    <t>707086481287</t>
+  </si>
+  <si>
+    <t>707086481302</t>
+  </si>
+  <si>
+    <t>707086481324</t>
+  </si>
+  <si>
+    <t>707086481335</t>
+  </si>
+  <si>
+    <t>707086481368</t>
+  </si>
+  <si>
+    <t>707086481379</t>
+  </si>
+  <si>
+    <t>707086481460</t>
+  </si>
+  <si>
+    <t>707086481471</t>
+  </si>
+  <si>
+    <t>707086481482</t>
+  </si>
+  <si>
+    <t>707086481493</t>
+  </si>
+  <si>
+    <t>707086481508</t>
+  </si>
+  <si>
+    <t>707086481519</t>
+  </si>
+  <si>
+    <t>707086481520</t>
+  </si>
+  <si>
+    <t>707086481530</t>
+  </si>
+  <si>
+    <t>707086481541</t>
+  </si>
+  <si>
+    <t>707086481552</t>
+  </si>
+  <si>
+    <t>707086481563</t>
+  </si>
+  <si>
+    <t>707086481574</t>
+  </si>
+  <si>
+    <t>272928284960</t>
+  </si>
+  <si>
+    <t>707086481725</t>
+  </si>
+  <si>
+    <t>707086481736</t>
+  </si>
+  <si>
+    <t>707086482607</t>
+  </si>
+  <si>
+    <t>707086482754</t>
+  </si>
+  <si>
+    <t>726491930506</t>
+  </si>
+  <si>
+    <t>DENIED - 50 IMPROPER / MISSING REGULATORY PAPERWORK</t>
+  </si>
+  <si>
+    <t>726491930930</t>
+  </si>
+  <si>
+    <t>726491930024</t>
+  </si>
+  <si>
+    <t>651956631206</t>
+  </si>
+  <si>
+    <t>651956631320</t>
+  </si>
+  <si>
+    <t>727534459294</t>
+  </si>
+  <si>
+    <t>726491930951</t>
+  </si>
+  <si>
+    <t>727534459651</t>
+  </si>
+  <si>
+    <t>651956631548</t>
+  </si>
+  <si>
+    <t>726491930929</t>
+  </si>
+  <si>
+    <t>818154462164</t>
+  </si>
+  <si>
+    <t>726491930973</t>
+  </si>
+  <si>
+    <t>727534459662</t>
+  </si>
+  <si>
+    <t>815558258623</t>
+  </si>
+  <si>
+    <t>728347755427</t>
+  </si>
+  <si>
+    <t>775866025327</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>273216787577</t>
+  </si>
+  <si>
+    <t>775789750667</t>
+  </si>
+  <si>
+    <t>273345577628</t>
+  </si>
+  <si>
+    <t>273351638170</t>
+  </si>
+  <si>
+    <t>775811347058</t>
+  </si>
+  <si>
+    <t>272597240022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIED - SN WEATHER DELAY - SNOW </t>
+  </si>
+  <si>
+    <t>775818884999</t>
+  </si>
+  <si>
+    <t>775878713006</t>
+  </si>
+  <si>
+    <t>273336417051</t>
+  </si>
+  <si>
+    <t>775920336091</t>
+  </si>
+  <si>
+    <t>775899272753</t>
+  </si>
+  <si>
+    <t>775921878293</t>
+  </si>
+  <si>
+    <t>272461530276</t>
+  </si>
+  <si>
+    <t>272684815866</t>
+  </si>
+  <si>
+    <t>272680290080</t>
+  </si>
+  <si>
+    <t>273204210432</t>
+  </si>
+  <si>
+    <t>273184588215</t>
+  </si>
+  <si>
+    <t>273192253909</t>
+  </si>
+  <si>
+    <t>273058403555</t>
+  </si>
+  <si>
+    <t>720266537700</t>
+  </si>
+  <si>
+    <t>702515828150</t>
+  </si>
+  <si>
+    <t>273058264724</t>
+  </si>
+  <si>
+    <t>775834149950</t>
+  </si>
+  <si>
+    <t>273302078341</t>
+  </si>
+  <si>
+    <t>273297047350</t>
+  </si>
+  <si>
+    <t>273331399322</t>
+  </si>
+  <si>
+    <t>273342281049</t>
+  </si>
+  <si>
+    <t>273349245825</t>
+  </si>
+  <si>
+    <t>273349248651</t>
+  </si>
+  <si>
+    <t>273355220415</t>
+  </si>
+  <si>
+    <t>273355240830</t>
+  </si>
+  <si>
+    <t>775903421504</t>
+  </si>
+  <si>
+    <t>273296634876</t>
+  </si>
+  <si>
+    <t>273058424748</t>
+  </si>
+  <si>
+    <t>639007720024</t>
+  </si>
+  <si>
+    <t>273331178811</t>
+  </si>
+  <si>
+    <t>720266531415</t>
+  </si>
+  <si>
+    <t>720266531805</t>
+  </si>
+  <si>
+    <t>720315971205</t>
+  </si>
+  <si>
+    <t>720315971720</t>
+  </si>
+  <si>
+    <t>720266537300</t>
+  </si>
+  <si>
+    <t>720315972933</t>
+  </si>
+  <si>
+    <t>273022234411</t>
+  </si>
+  <si>
+    <t>273022408902</t>
+  </si>
+  <si>
+    <t>273023944602</t>
+  </si>
+  <si>
+    <t>720315972782</t>
+  </si>
+  <si>
+    <t>720315972900</t>
+  </si>
+  <si>
+    <t>720315972911</t>
+  </si>
+  <si>
+    <t>273052196236</t>
+  </si>
+  <si>
+    <t>273059099535</t>
+  </si>
+  <si>
+    <t>273059219533</t>
+  </si>
+  <si>
+    <t>272969507581</t>
+  </si>
+  <si>
+    <t>273067454930</t>
+  </si>
+  <si>
+    <t>273068322294</t>
+  </si>
+  <si>
+    <t>273049253870</t>
+  </si>
+  <si>
+    <t>720266537230</t>
+  </si>
+  <si>
+    <t>273049253994</t>
+  </si>
+  <si>
+    <t>273052120757</t>
+  </si>
+  <si>
+    <t>720266537310</t>
+  </si>
+  <si>
+    <t>720266537332</t>
+  </si>
+  <si>
+    <t>720266537354</t>
+  </si>
+  <si>
+    <t>273065797802</t>
+  </si>
+  <si>
+    <t>720266537376</t>
+  </si>
+  <si>
+    <t>720266537387</t>
+  </si>
+  <si>
+    <t>775736808077</t>
+  </si>
+  <si>
+    <t>775834477488</t>
+  </si>
+  <si>
+    <t>273051786647</t>
+  </si>
+  <si>
+    <t>273069052652</t>
+  </si>
+  <si>
+    <t>720266537262</t>
+  </si>
+  <si>
+    <t>DENIED - TD TEMPORARY LOCAL DISRUPTION</t>
+  </si>
+  <si>
+    <t>775821079620</t>
+  </si>
+  <si>
+    <t>574500837395</t>
+  </si>
+  <si>
+    <t>720266537295</t>
+  </si>
+  <si>
+    <t>720266537365</t>
+  </si>
+  <si>
+    <t>273058985077</t>
+  </si>
+  <si>
+    <t>273130049730</t>
+  </si>
+  <si>
+    <t>720266537711</t>
+  </si>
+  <si>
+    <t>720315972999</t>
+  </si>
+  <si>
+    <t>720315973002</t>
+  </si>
+  <si>
+    <t>720266537468</t>
+  </si>
+  <si>
+    <t>273149411025</t>
+  </si>
+  <si>
+    <t>273130301207</t>
+  </si>
+  <si>
+    <t>273173268696</t>
+  </si>
+  <si>
+    <t>791443142360</t>
+  </si>
+  <si>
+    <t>720315973057</t>
+  </si>
+  <si>
+    <t>775891337124</t>
+  </si>
+  <si>
+    <t>775934406352</t>
+  </si>
+  <si>
+    <t>272780583891</t>
+  </si>
+  <si>
+    <t>272770694662</t>
+  </si>
+  <si>
+    <t>272794328991</t>
+  </si>
+  <si>
+    <t>272794816410</t>
+  </si>
+  <si>
+    <t>272794874766</t>
+  </si>
+  <si>
+    <t>272685094324</t>
+  </si>
+  <si>
+    <t>272685095993</t>
+  </si>
+  <si>
+    <t>272706357271</t>
+  </si>
+  <si>
+    <t>272785728440</t>
+  </si>
+  <si>
+    <t>272788274065</t>
+  </si>
+  <si>
+    <t>272798228387</t>
+  </si>
+  <si>
+    <t>272875533147</t>
+  </si>
+  <si>
+    <t>732049999094</t>
+  </si>
+  <si>
+    <t>732049999109</t>
+  </si>
+  <si>
+    <t>732049999110</t>
+  </si>
+  <si>
+    <t>732049999120</t>
+  </si>
+  <si>
+    <t>732049999131</t>
+  </si>
+  <si>
+    <t>732049999142</t>
+  </si>
+  <si>
+    <t>732049999153</t>
+  </si>
+  <si>
+    <t>732049999164</t>
+  </si>
+  <si>
+    <t>273046099086</t>
+  </si>
+  <si>
+    <t>273048170120</t>
+  </si>
+  <si>
+    <t>273062884460</t>
+  </si>
+  <si>
+    <t>273063150621</t>
+  </si>
+  <si>
+    <t>272993101771</t>
+  </si>
+  <si>
+    <t>273049652153</t>
+  </si>
+  <si>
+    <t>273052789208</t>
+  </si>
+  <si>
+    <t>273052873874</t>
+  </si>
+  <si>
+    <t>273057063494</t>
+  </si>
+  <si>
+    <t>273057064126</t>
+  </si>
+  <si>
+    <t>273057064711</t>
+  </si>
+  <si>
+    <t>273057065410</t>
+  </si>
+  <si>
+    <t>273057065957</t>
+  </si>
+  <si>
+    <t>273057212915</t>
+  </si>
+  <si>
+    <t>273072659719</t>
+  </si>
+  <si>
+    <t>273073482556</t>
+  </si>
+  <si>
+    <t>273073483346</t>
+  </si>
+  <si>
+    <t>273073484868</t>
+  </si>
+  <si>
+    <t>273073485680</t>
+  </si>
+  <si>
+    <t>273073486665</t>
+  </si>
+  <si>
+    <t>273073570143</t>
+  </si>
+  <si>
+    <t>273073570875</t>
+  </si>
+  <si>
+    <t>273073571297</t>
+  </si>
+  <si>
+    <t>273073717001</t>
+  </si>
+  <si>
+    <t>273051891579</t>
+  </si>
+  <si>
+    <t>273051893480</t>
+  </si>
+  <si>
+    <t>273061343677</t>
+  </si>
+  <si>
+    <t>273254820537</t>
+  </si>
+  <si>
+    <t>273292812768</t>
+  </si>
+  <si>
+    <t>709996880441</t>
+  </si>
+  <si>
+    <t>273250005161</t>
+  </si>
+  <si>
+    <t>577792928756</t>
+  </si>
+  <si>
+    <t>273344957848</t>
+  </si>
+  <si>
+    <t>732596085130</t>
+  </si>
+  <si>
+    <t>732596077418</t>
+  </si>
+  <si>
+    <t>732596092223</t>
+  </si>
+  <si>
+    <t>796710265178</t>
+  </si>
+  <si>
+    <t>796742258208</t>
+  </si>
+  <si>
+    <t>796798534510</t>
+  </si>
+  <si>
+    <t>796800157547</t>
+  </si>
+  <si>
+    <t>796800174127</t>
+  </si>
+  <si>
+    <t>710000688027</t>
+  </si>
+  <si>
+    <t>710000712919</t>
+  </si>
+  <si>
+    <t>722611825242</t>
+  </si>
+  <si>
+    <t>722611867433</t>
+  </si>
+  <si>
+    <t>722611870234</t>
+  </si>
+  <si>
+    <t>722611906386</t>
+  </si>
+  <si>
+    <t>732596066720</t>
+  </si>
+  <si>
+    <t>732596081421</t>
+  </si>
+  <si>
+    <t>732596086504</t>
+  </si>
+  <si>
+    <t>732596097567</t>
+  </si>
+  <si>
+    <t>732596105709</t>
+  </si>
+  <si>
+    <t>732596105720</t>
+  </si>
+  <si>
+    <t>732596105731</t>
+  </si>
+  <si>
+    <t>732596105742</t>
+  </si>
+  <si>
+    <t>732596105753</t>
+  </si>
+  <si>
+    <t>732596105764</t>
+  </si>
+  <si>
+    <t>732596106201</t>
+  </si>
+  <si>
+    <t>732596106304</t>
+  </si>
+  <si>
+    <t>732596106326</t>
+  </si>
+  <si>
+    <t>732596106705</t>
+  </si>
+  <si>
+    <t>732596106820</t>
+  </si>
+  <si>
+    <t>732596106841</t>
+  </si>
+  <si>
+    <t>732596106852</t>
+  </si>
+  <si>
+    <t>732596106863</t>
+  </si>
+  <si>
+    <t>732596106874</t>
+  </si>
+  <si>
+    <t>732596106922</t>
+  </si>
+  <si>
+    <t>732596106988</t>
+  </si>
+  <si>
+    <t>732596107220</t>
+  </si>
+  <si>
+    <t>796743351566</t>
+  </si>
+  <si>
+    <t>735869994728</t>
+  </si>
+  <si>
+    <t>796710305017</t>
+  </si>
+  <si>
+    <t>796765032590</t>
+  </si>
+  <si>
+    <t>796788032844</t>
+  </si>
+  <si>
+    <t>796800179520</t>
+  </si>
+  <si>
+    <t>796800179530</t>
+  </si>
+  <si>
+    <t>796810171780</t>
+  </si>
+  <si>
+    <t>775914863542</t>
+  </si>
+  <si>
+    <t>730855700959</t>
+  </si>
+  <si>
+    <t>730855708949</t>
+  </si>
+  <si>
+    <t>730855709864</t>
+  </si>
+  <si>
+    <t>730855709875</t>
+  </si>
+  <si>
+    <t>730855710033</t>
+  </si>
+  <si>
+    <t>730855710125</t>
+  </si>
+  <si>
+    <t>730855710136</t>
+  </si>
+  <si>
+    <t>730855710147</t>
+  </si>
+  <si>
+    <t>815724761561</t>
+  </si>
+  <si>
+    <t>775931562893</t>
+  </si>
+  <si>
+    <t>775935513320</t>
+  </si>
+  <si>
+    <t>791444418040</t>
+  </si>
+  <si>
+    <t>815724761550</t>
+  </si>
+  <si>
+    <t>730443169424</t>
+  </si>
+  <si>
+    <t>735127596091</t>
+  </si>
+  <si>
+    <t>735127596106</t>
+  </si>
+  <si>
+    <t>735127596117</t>
+  </si>
+  <si>
+    <t>735127602149</t>
+  </si>
+  <si>
+    <t>730443223046</t>
+  </si>
+  <si>
+    <t>730443223458</t>
+  </si>
+  <si>
+    <t>730443224075</t>
+  </si>
+  <si>
+    <t>730443228184</t>
+  </si>
+  <si>
+    <t>730443233507</t>
+  </si>
+  <si>
+    <t>732596513605</t>
+  </si>
+  <si>
+    <t>735127600580</t>
+  </si>
+  <si>
+    <t>730443223675</t>
+  </si>
+  <si>
+    <t>730443225200</t>
+  </si>
+  <si>
+    <t>730443225277</t>
+  </si>
+  <si>
+    <t>730443232084</t>
+  </si>
+  <si>
+    <t>730443235381</t>
+  </si>
+  <si>
+    <t>730443239230</t>
+  </si>
+  <si>
+    <t>730443247076</t>
+  </si>
+  <si>
+    <t>DENIED - AT AIRCRAFT DELAY IN FLIGHT</t>
+  </si>
+  <si>
+    <t>735210961853</t>
+  </si>
+  <si>
+    <t>735210961864</t>
+  </si>
+  <si>
+    <t>735210961886</t>
+  </si>
+  <si>
+    <t>734365153308</t>
+  </si>
+  <si>
+    <t>734365153319</t>
+  </si>
+  <si>
+    <t>734365153320</t>
+  </si>
+  <si>
+    <t>734365153330</t>
+  </si>
+  <si>
+    <t>734365153341</t>
+  </si>
+  <si>
+    <t>734365153352</t>
+  </si>
+  <si>
+    <t>734365153363</t>
+  </si>
+  <si>
+    <t>734365153374</t>
+  </si>
+  <si>
+    <t>734365153385</t>
+  </si>
+  <si>
+    <t>734365153396</t>
+  </si>
+  <si>
+    <t>734365153400</t>
+  </si>
+  <si>
+    <t>734365153411</t>
+  </si>
+  <si>
+    <t>734365153422</t>
+  </si>
+  <si>
+    <t>734365153433</t>
+  </si>
+  <si>
+    <t>734365153444</t>
+  </si>
+  <si>
+    <t>734365153455</t>
+  </si>
+  <si>
+    <t>734365153466</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +1406,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,103 +1738,3488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B433"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tracking Number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>707086481493</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>707086481493</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>707086481508</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>707086481508</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>707086481519</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>707086481519</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>707086481520</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>707086481520</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>707086481530</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Page didn't load.</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>707086481530</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Page didn't load.</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>176</v>
+      </c>
+      <c r="B167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>216</v>
+      </c>
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>217</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>219</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>221</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>223</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>228</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>236</v>
+      </c>
+      <c r="B226" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>238</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>239</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>240</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>242</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>243</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>244</v>
+      </c>
+      <c r="B234" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>245</v>
+      </c>
+      <c r="B235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>246</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>247</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>248</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>249</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>250</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>251</v>
+      </c>
+      <c r="B241" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>252</v>
+      </c>
+      <c r="B242" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>253</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>254</v>
+      </c>
+      <c r="B244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>255</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>256</v>
+      </c>
+      <c r="B246" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>257</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>258</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>259</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>260</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>261</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>262</v>
+      </c>
+      <c r="B252" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>263</v>
+      </c>
+      <c r="B253" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>264</v>
+      </c>
+      <c r="B254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>265</v>
+      </c>
+      <c r="B255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>266</v>
+      </c>
+      <c r="B256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>267</v>
+      </c>
+      <c r="B257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>269</v>
+      </c>
+      <c r="B259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>270</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>271</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>272</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>273</v>
+      </c>
+      <c r="B263" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>275</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>276</v>
+      </c>
+      <c r="B265" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>277</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>278</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>279</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>280</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>281</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>282</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>283</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>284</v>
+      </c>
+      <c r="B274" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>285</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>287</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>303</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>304</v>
+      </c>
+      <c r="B296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>305</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>307</v>
+      </c>
+      <c r="B299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>309</v>
+      </c>
+      <c r="B301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>311</v>
+      </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>312</v>
+      </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>313</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>324</v>
+      </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>325</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>326</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>327</v>
+      </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>328</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>329</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>330</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>331</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>332</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>333</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>334</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>335</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>336</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>337</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>338</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>339</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>340</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>341</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>342</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>346</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>347</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>350</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>351</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>352</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>354</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>356</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>358</v>
+      </c>
+      <c r="B350" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>359</v>
+      </c>
+      <c r="B351" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>360</v>
+      </c>
+      <c r="B352" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>363</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>365</v>
+      </c>
+      <c r="B357" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>366</v>
+      </c>
+      <c r="B358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>367</v>
+      </c>
+      <c r="B359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>370</v>
+      </c>
+      <c r="B362" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>371</v>
+      </c>
+      <c r="B363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>373</v>
+      </c>
+      <c r="B365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>374</v>
+      </c>
+      <c r="B366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>375</v>
+      </c>
+      <c r="B367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>376</v>
+      </c>
+      <c r="B368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>379</v>
+      </c>
+      <c r="B371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>380</v>
+      </c>
+      <c r="B372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>381</v>
+      </c>
+      <c r="B373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>383</v>
+      </c>
+      <c r="B375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>384</v>
+      </c>
+      <c r="B376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>385</v>
+      </c>
+      <c r="B377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>387</v>
+      </c>
+      <c r="B379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>388</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>389</v>
+      </c>
+      <c r="B381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>390</v>
+      </c>
+      <c r="B382" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>391</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>394</v>
+      </c>
+      <c r="B386" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>395</v>
+      </c>
+      <c r="B387" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>396</v>
+      </c>
+      <c r="B388" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>397</v>
+      </c>
+      <c r="B389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>398</v>
+      </c>
+      <c r="B390" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>399</v>
+      </c>
+      <c r="B391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>400</v>
+      </c>
+      <c r="B392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>401</v>
+      </c>
+      <c r="B393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>402</v>
+      </c>
+      <c r="B394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>403</v>
+      </c>
+      <c r="B395" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>404</v>
+      </c>
+      <c r="B396" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>405</v>
+      </c>
+      <c r="B397" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>406</v>
+      </c>
+      <c r="B398" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>407</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>408</v>
+      </c>
+      <c r="B400" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>409</v>
+      </c>
+      <c r="B401" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>410</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>411</v>
+      </c>
+      <c r="B403" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>412</v>
+      </c>
+      <c r="B404" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>414</v>
+      </c>
+      <c r="B406" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>415</v>
+      </c>
+      <c r="B407" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>416</v>
+      </c>
+      <c r="B408" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>417</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>418</v>
+      </c>
+      <c r="B410" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>419</v>
+      </c>
+      <c r="B411" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>420</v>
+      </c>
+      <c r="B412" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>421</v>
+      </c>
+      <c r="B413" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>423</v>
+      </c>
+      <c r="B414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>424</v>
+      </c>
+      <c r="B415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>425</v>
+      </c>
+      <c r="B416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>426</v>
+      </c>
+      <c r="B417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>427</v>
+      </c>
+      <c r="B418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>428</v>
+      </c>
+      <c r="B419" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>429</v>
+      </c>
+      <c r="B420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>430</v>
+      </c>
+      <c r="B421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>431</v>
+      </c>
+      <c r="B422" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>432</v>
+      </c>
+      <c r="B423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>433</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>434</v>
+      </c>
+      <c r="B425" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>435</v>
+      </c>
+      <c r="B426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>436</v>
+      </c>
+      <c r="B427" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>437</v>
+      </c>
+      <c r="B428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>438</v>
+      </c>
+      <c r="B429" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>439</v>
+      </c>
+      <c r="B430" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>440</v>
+      </c>
+      <c r="B431" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>441</v>
+      </c>
+      <c r="B432" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>442</v>
+      </c>
+      <c r="B433" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError sqref="A1:B433" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>